--- a/Execution3.xlsx
+++ b/Execution3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="220" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="13760" yWindow="800" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>NUM_THREADS</t>
   </si>
@@ -39,7 +39,19 @@
     <t>0.004916</t>
   </si>
   <si>
-    <t>Radius</t>
+    <t>N=1000</t>
+  </si>
+  <si>
+    <t>N=2000</t>
+  </si>
+  <si>
+    <t>Speedup 1000</t>
+  </si>
+  <si>
+    <t>Speedup 2000</t>
+  </si>
+  <si>
+    <t>Trådar</t>
   </si>
 </sst>
 </file>
@@ -47,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -55,6 +67,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,26 +104,647 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3.7174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4412</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8091</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7357</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6742</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6459</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>17.4806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.1163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2944</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1324</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6211</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7074</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3435</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4954</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.3551</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1961</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="179876376"/>
+        <c:axId val="179377496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="179876376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Antal kärnor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179377496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="179377496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Exekveringstid</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179876376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>N=1000</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>N=2000</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="179410072"/>
+        <c:axId val="179527912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="179410072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Antal Trådar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179527912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="179527912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179410072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -446,10 +1080,11 @@
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,13 +1095,22 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>4</v>
       </c>
@@ -477,13 +1121,22 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>0.54347000000000001</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>3.7174</v>
+      </c>
+      <c r="F2" s="1">
+        <v>17.480599999999999</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>8</v>
       </c>
@@ -494,13 +1147,22 @@
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>0.28952699999999998</v>
-      </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1.5176000000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10.116300000000001</v>
+      </c>
+      <c r="G3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H3">
+        <v>1.73</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>16</v>
       </c>
@@ -511,13 +1173,22 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>0.23630999999999999</v>
-      </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1.3385</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9.3233999999999995</v>
+      </c>
+      <c r="G4">
+        <v>3.93</v>
+      </c>
+      <c r="H4">
+        <v>2.15</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>32</v>
       </c>
@@ -528,131 +1199,149 @@
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>0.22353700000000001</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.94679999999999997</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.1341999999999999</v>
+      </c>
+      <c r="G5">
+        <v>7.17</v>
+      </c>
+      <c r="H5">
+        <v>3.3</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>0.21556</v>
-      </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.65620000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6.6013999999999999</v>
+      </c>
+      <c r="G6">
+        <v>9.35</v>
+      </c>
+      <c r="H6">
+        <v>4.2</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>0.214757</v>
-      </c>
-      <c r="F7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.51819999999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.2944000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" s="1">
-        <v>0.226544</v>
-      </c>
-      <c r="F8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.44119999999999998</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.6403999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" s="1">
-        <v>0.23223099999999999</v>
-      </c>
-      <c r="F9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.39760000000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4.1323999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" s="1">
-        <v>0.26022800000000001</v>
-      </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6.0994999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" s="1">
-        <v>0.31322100000000003</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.80910000000000004</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5.6211000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" s="1">
-        <v>0.36029800000000001</v>
-      </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.81859999999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5.7073999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" s="1">
-        <v>0.382185</v>
-      </c>
-      <c r="F13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.3434999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" s="1">
-        <v>0.38943100000000003</v>
-      </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.67420000000000002</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5.4954000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" s="1">
-        <v>0.45605400000000001</v>
-      </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5.3551000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" s="1">
-        <v>0.53908699999999998</v>
-      </c>
-      <c r="F16">
-        <v>50</v>
+        <v>0.64590000000000003</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5.1961000000000004</v>
       </c>
     </row>
     <row r="17" spans="4:6">
@@ -660,235 +1349,16 @@
         <v>16</v>
       </c>
       <c r="E17" s="1">
-        <v>0.52925199999999994</v>
-      </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.55932999999999999</v>
-      </c>
-      <c r="F18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="D19">
-        <v>18</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.52662799999999999</v>
-      </c>
-      <c r="F19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4.5505800000000001</v>
-      </c>
-      <c r="F20">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3.25936</v>
-      </c>
-      <c r="F21">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2.8264399999999998</v>
-      </c>
-      <c r="F22">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2.5860799999999999</v>
-      </c>
-      <c r="F23">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6">
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2.42171</v>
-      </c>
-      <c r="F24">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2.31732</v>
-      </c>
-      <c r="F25">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="D26">
-        <v>7</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2.2284999999999999</v>
-      </c>
-      <c r="F26">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6">
-      <c r="D27">
-        <v>8</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2.1731199999999999</v>
-      </c>
-      <c r="F27">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6">
-      <c r="D28">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2">
-        <v>3.0203600000000002</v>
-      </c>
-      <c r="F28">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6">
-      <c r="D29">
-        <v>10</v>
-      </c>
-      <c r="E29" s="2">
-        <v>3.1785800000000002</v>
-      </c>
-      <c r="F29">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6">
-      <c r="D30">
-        <v>11</v>
-      </c>
-      <c r="E30" s="2">
-        <v>3.1985199999999998</v>
-      </c>
-      <c r="F30">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="D31">
-        <v>12</v>
-      </c>
-      <c r="E31" s="2">
-        <v>3.1655000000000002</v>
-      </c>
-      <c r="F31">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6">
-      <c r="D32">
-        <v>13</v>
-      </c>
-      <c r="E32" s="2">
-        <v>3.5356999999999998</v>
-      </c>
-      <c r="F32">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33">
-        <v>14</v>
-      </c>
-      <c r="E33" s="2">
-        <v>3.9739499999999999</v>
-      </c>
-      <c r="F33">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34">
-        <v>15</v>
-      </c>
-      <c r="E34" s="2">
-        <v>3.75406</v>
-      </c>
-      <c r="F34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="D35">
-        <v>16</v>
-      </c>
-      <c r="E35" s="2">
-        <v>3.9392499999999999</v>
-      </c>
-      <c r="F35">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6">
-      <c r="D36">
-        <v>17</v>
-      </c>
-      <c r="E36" s="2">
-        <v>4.3780700000000001</v>
-      </c>
-      <c r="F36">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6">
-      <c r="D37">
-        <v>18</v>
-      </c>
-      <c r="E37" s="2">
-        <v>4.5690999999999997</v>
-      </c>
-      <c r="F37">
-        <v>500</v>
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4.8840000000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
